--- a/データサイエンス_評価シート_倉吉健太.xlsx
+++ b/データサイエンス_評価シート_倉吉健太.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\samurai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6CB2E1D-A55D-41FA-BF2D-E6E5FA2AA8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A5DFF-8DBB-4F02-A6A3-BF63E3E81E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シートの使い方" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
   <si>
     <t>レビューシートの使用準備</t>
   </si>
@@ -712,12 +712,16 @@
     </r>
     <phoneticPr fontId="30"/>
   </si>
+  <si>
+    <t>https://github.com/kurayoshi0901/AMLsample.git</t>
+    <phoneticPr fontId="30"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -918,6 +922,14 @@
       <name val="M PLUS 1p"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1146,8 +1158,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1257,13 +1270,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1272,11 +1290,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1287,25 +1300,26 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1621,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -1637,14 +1651,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
@@ -1672,26 +1686,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="14.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="12.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1703,12 +1717,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="12.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="12.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1720,7 +1734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="12.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1732,21 +1746,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="14.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="14.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
@@ -1890,8 +1904,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1901,7 +1915,7 @@
     <col min="3" max="3" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
@@ -1909,27 +1923,31 @@
       <c r="C1" s="12"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
@@ -1943,19 +1961,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -1972,7 +1990,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="50" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -1986,7 +2004,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
@@ -1998,7 +2016,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="16" t="s">
         <v>41</v>
       </c>
@@ -2009,8 +2027,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="57"/>
+    <row r="13" spans="1:4" ht="28.5">
+      <c r="A13" s="51"/>
       <c r="B13" s="16" t="s">
         <v>43</v>
       </c>
@@ -2021,8 +2039,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="57"/>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="51"/>
       <c r="B14" s="20" t="s">
         <v>45</v>
       </c>
@@ -2033,8 +2051,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:4" ht="28.5">
+      <c r="A15" s="52"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
       </c>
@@ -2064,6 +2082,8 @@
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="C11" r:id="rId2" location="heading=h.x2afruzcksw6" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{80521CC0-6646-4296-9803-AC1B4268F18E}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{F5C8F3EB-FDEA-44A9-A14A-3A1CD35F79CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2254,7 +2274,7 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="57"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="31" t="s">
         <v>54</v>
       </c>
@@ -2292,7 +2312,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="58"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="31" t="s">
         <v>56</v>
       </c>
@@ -2336,7 +2356,7 @@
       <c r="B8" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="49" t="s">
         <v>142</v>
       </c>
       <c r="D8" s="36">
@@ -2370,7 +2390,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="57"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="35" t="s">
         <v>61</v>
       </c>
@@ -2408,7 +2428,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="57"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="35" t="s">
         <v>63</v>
       </c>
@@ -2446,7 +2466,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="57"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="35" t="s">
         <v>65</v>
       </c>
@@ -2484,7 +2504,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="57"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="38" t="s">
         <v>67</v>
       </c>
@@ -2522,11 +2542,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="57"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="49" t="s">
         <v>141</v>
       </c>
       <c r="D13" s="36">
@@ -2560,7 +2580,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="57"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="38" t="s">
         <v>71</v>
       </c>
@@ -2598,7 +2618,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="58"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="38" t="s">
         <v>73</v>
       </c>
@@ -2653,7 +2673,7 @@
   </sheetPr>
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -2718,16 +2738,16 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="45">
         <v>1</v>
       </c>
@@ -2790,13 +2810,13 @@
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1">
       <c r="A10" s="64"/>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="68"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="45">
         <v>1</v>
       </c>
@@ -2859,13 +2879,13 @@
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1">
       <c r="A15" s="64"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="68"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="45">
         <v>1</v>
       </c>
@@ -2927,16 +2947,16 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="45">
         <v>1</v>
       </c>
@@ -2999,13 +3019,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="64"/>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="45">
         <v>1</v>
       </c>
@@ -3068,13 +3088,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="64"/>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="68"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="45">
         <v>1</v>
       </c>
@@ -3137,13 +3157,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="64"/>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="68"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="45">
         <v>1</v>
       </c>
@@ -3206,13 +3226,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="64"/>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="68"/>
+      <c r="D40" s="63"/>
       <c r="E40" s="45">
         <v>1</v>
       </c>
@@ -3275,13 +3295,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="64"/>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="68"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="45">
         <v>1</v>
       </c>
@@ -3344,13 +3364,13 @@
     </row>
     <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="64"/>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="68"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="45">
         <v>1</v>
       </c>
@@ -3413,13 +3433,13 @@
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="64"/>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="68"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="45">
         <v>1</v>
       </c>
@@ -3482,18 +3502,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="D25:D29"/>
@@ -3504,19 +3517,26 @@
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="D10:D14"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="A20:A59"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
   </mergeCells>
   <phoneticPr fontId="30"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/データサイエンス_評価シート_倉吉健太.xlsx
+++ b/データサイエンス_評価シート_倉吉健太.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\samurai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1A5DFF-8DBB-4F02-A6A3-BF63E3E81E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5AF615-0B27-413D-9E09-5DD99D6D1E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49170" yWindow="-330" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シートの使い方" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="145">
   <si>
     <t>レビューシートの使用準備</t>
   </si>
@@ -714,6 +714,10 @@
   </si>
   <si>
     <t>https://github.com/kurayoshi0901/AMLsample.git</t>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/kurayoshi0901/9e68a9fed58bd8d5ff8cd90309bea147</t>
     <phoneticPr fontId="30"/>
   </si>
 </sst>
@@ -1282,6 +1286,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1300,22 +1307,19 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1904,8 +1908,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1934,18 +1938,18 @@
         <v>29</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="55" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="54"/>
-      <c r="C4" s="69" t="s">
-        <v>143</v>
+      <c r="C4" s="55" t="s">
+        <v>144</v>
       </c>
       <c r="D4" s="54"/>
     </row>
@@ -1968,12 +1972,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
@@ -2096,7 +2100,7 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2168,11 +2172,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2234,7 +2238,7 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2350,7 +2354,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -2738,16 +2742,16 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="63"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="45">
         <v>1</v>
       </c>
@@ -2757,10 +2761,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="45">
         <v>2</v>
       </c>
@@ -2770,10 +2774,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
       <c r="E7" s="45">
         <v>3</v>
       </c>
@@ -2783,10 +2787,10 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="45">
         <v>4</v>
       </c>
@@ -2796,10 +2800,10 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="45">
         <v>5</v>
       </c>
@@ -2809,14 +2813,14 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="68" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="45">
         <v>1</v>
       </c>
@@ -2826,10 +2830,10 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="45">
         <v>2</v>
       </c>
@@ -2839,10 +2843,10 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="45">
         <v>3</v>
       </c>
@@ -2852,10 +2856,10 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="45">
         <v>4</v>
       </c>
@@ -2865,10 +2869,10 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="45">
         <v>5</v>
       </c>
@@ -2878,14 +2882,14 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="68" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="63"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="45">
         <v>1</v>
       </c>
@@ -2895,10 +2899,10 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="45">
         <v>2</v>
       </c>
@@ -2908,10 +2912,10 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="45">
         <v>3</v>
       </c>
@@ -2921,10 +2925,10 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="45">
         <v>4</v>
       </c>
@@ -2934,10 +2938,10 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="45">
         <v>5</v>
       </c>
@@ -2947,16 +2951,16 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="14.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="45">
         <v>1</v>
       </c>
@@ -2966,10 +2970,10 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="45">
         <v>2</v>
       </c>
@@ -2979,10 +2983,10 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="14.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="45">
         <v>3</v>
       </c>
@@ -2992,10 +2996,10 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="14.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="45">
         <v>4</v>
       </c>
@@ -3005,10 +3009,10 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="45">
         <v>5</v>
       </c>
@@ -3018,14 +3022,14 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="14.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="45">
         <v>1</v>
       </c>
@@ -3035,10 +3039,10 @@
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="14.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="45">
         <v>2</v>
       </c>
@@ -3048,10 +3052,10 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="45">
         <v>3</v>
       </c>
@@ -3061,10 +3065,10 @@
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="14.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="45">
         <v>4</v>
       </c>
@@ -3074,10 +3078,10 @@
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="14.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="45">
         <v>5</v>
       </c>
@@ -3087,14 +3091,14 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="45">
         <v>1</v>
       </c>
@@ -3104,10 +3108,10 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="14.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="45">
         <v>2</v>
       </c>
@@ -3117,10 +3121,10 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="14.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="45">
         <v>3</v>
       </c>
@@ -3130,10 +3134,10 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="45">
         <v>4</v>
       </c>
@@ -3143,10 +3147,10 @@
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="14.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="45">
         <v>5</v>
       </c>
@@ -3156,14 +3160,14 @@
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="14.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="66" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="63"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="45">
         <v>1</v>
       </c>
@@ -3173,10 +3177,10 @@
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
       <c r="E36" s="45">
         <v>2</v>
       </c>
@@ -3186,10 +3190,10 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="14.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
       <c r="E37" s="45">
         <v>3</v>
       </c>
@@ -3199,10 +3203,10 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="45">
         <v>4</v>
       </c>
@@ -3212,10 +3216,10 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
       <c r="E39" s="45">
         <v>5</v>
       </c>
@@ -3225,14 +3229,14 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="14.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="66" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="63"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="45">
         <v>1</v>
       </c>
@@ -3242,10 +3246,10 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="14.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="45">
         <v>2</v>
       </c>
@@ -3255,10 +3259,10 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="45">
         <v>3</v>
       </c>
@@ -3268,10 +3272,10 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="14.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
       <c r="E43" s="45">
         <v>4</v>
       </c>
@@ -3281,10 +3285,10 @@
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="14.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="45">
         <v>5</v>
       </c>
@@ -3294,14 +3298,14 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="14.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="66" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="63"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="45">
         <v>1</v>
       </c>
@@ -3311,10 +3315,10 @@
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="14.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="45">
         <v>2</v>
       </c>
@@ -3324,10 +3328,10 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="14.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="45">
         <v>3</v>
       </c>
@@ -3337,10 +3341,10 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="14.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="45">
         <v>4</v>
       </c>
@@ -3350,10 +3354,10 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="14.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
       <c r="E49" s="45">
         <v>5</v>
       </c>
@@ -3363,14 +3367,14 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="14.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="66" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="63"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="45">
         <v>1</v>
       </c>
@@ -3380,10 +3384,10 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="14.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="45">
         <v>2</v>
       </c>
@@ -3393,10 +3397,10 @@
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="14.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="45">
         <v>3</v>
       </c>
@@ -3406,10 +3410,10 @@
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="14.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="45">
         <v>4</v>
       </c>
@@ -3419,10 +3423,10 @@
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="14.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
       <c r="E54" s="45">
         <v>5</v>
       </c>
@@ -3432,14 +3436,14 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="14.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="66" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D55" s="63"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="45">
         <v>1</v>
       </c>
@@ -3449,10 +3453,10 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="14.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
       <c r="E56" s="45">
         <v>2</v>
       </c>
@@ -3462,10 +3466,10 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="14.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="45">
         <v>3</v>
       </c>
@@ -3475,10 +3479,10 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="14.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
       <c r="E58" s="45">
         <v>4</v>
       </c>
@@ -3488,10 +3492,10 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="14.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
       <c r="E59" s="45">
         <v>5</v>
       </c>
@@ -3502,11 +3506,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D40:D44"/>
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="D25:D29"/>
@@ -3523,20 +3536,11 @@
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
   </mergeCells>
   <phoneticPr fontId="30"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
